--- a/raw_data/anuncios_ff_inversa.xlsx
+++ b/raw_data/anuncios_ff_inversa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="399">
   <si>
     <t>Fecha inicio</t>
   </si>
@@ -1181,6 +1181,12 @@
     <t>25% A / 75% E</t>
   </si>
   <si>
+    <t>80% A / 20% E</t>
+  </si>
+  <si>
+    <t>Sugerencia</t>
+  </si>
+  <si>
     <t>50% C / 50% A</t>
   </si>
   <si>
@@ -1190,21 +1196,24 @@
     <t>15% B / 85% A</t>
   </si>
   <si>
+    <t>30% E / 70% A</t>
+  </si>
+  <si>
+    <t>60% E / 40% A</t>
+  </si>
+  <si>
     <t>80% E / 20% A</t>
   </si>
   <si>
+    <t>40% E / 60% A</t>
+  </si>
+  <si>
     <t>10% E / 90% A</t>
   </si>
   <si>
     <t>20% E / 80% A</t>
   </si>
   <si>
-    <t>60% E / 40% A</t>
-  </si>
-  <si>
-    <t>30% E / 70% A</t>
-  </si>
-  <si>
     <t>25% E / 75% A</t>
   </si>
   <si>
@@ -1212,12 +1221,6 @@
   </si>
   <si>
     <t>80% E / 20% C</t>
-  </si>
-  <si>
-    <t>40% E / 60% A</t>
-  </si>
-  <si>
-    <t>Sugerencia</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1254,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,12 +1276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,7 +1429,7 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1715,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1775,831 +1772,767 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="22">
+        <v>44181</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44196</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>44166</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44181</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
         <v>44147</v>
       </c>
-      <c r="B2" s="22">
-        <v>44157</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="22">
+        <v>44166</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>44141</v>
+      </c>
+      <c r="B5" s="22">
+        <v>44147</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>44137</v>
+      </c>
+      <c r="B6" s="22">
+        <v>44141</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>44130</v>
-      </c>
-      <c r="B3" s="7">
-        <v>44147</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="15">
-        <v>-1.9900000000000001E-2</v>
-      </c>
-      <c r="F3" s="15">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="G3" s="15">
-        <v>-0.01</v>
-      </c>
-      <c r="H3" s="15">
-        <v>-4.1999999999999997E-3</v>
-      </c>
-      <c r="I3" s="16">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J3" s="15">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="K3" s="15">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="L3" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>44119</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44130</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="15">
-        <v>-3.0099999999999998E-2</v>
-      </c>
-      <c r="F4" s="15">
-        <v>-2.1499999999999998E-2</v>
-      </c>
-      <c r="G4" s="15">
-        <v>-1.24E-2</v>
-      </c>
-      <c r="H4" s="15">
-        <v>-3.5999999999999999E-3</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="J4" s="15">
-        <v>-5.1999999999999998E-3</v>
-      </c>
-      <c r="K4" s="15">
-        <v>-3.5000000000000001E-3</v>
-      </c>
-      <c r="L4" s="17">
-        <v>-1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>44103</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44119</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="F5" s="16">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="J5" s="16">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="K5" s="16">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L5" s="18">
-        <v>1.8499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>44097</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44103</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="F6" s="16">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="H6" s="15">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="I6" s="15">
-        <v>-6.4000000000000003E-3</v>
-      </c>
-      <c r="J6" s="15">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="K6" s="15">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="L6" s="17">
-        <v>-3.8999999999999998E-3</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>44082</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44097</v>
+        <v>44130</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="E7" s="15">
-        <v>-2.0999999999999999E-3</v>
+        <v>-1.9900000000000001E-2</v>
       </c>
       <c r="F7" s="15">
-        <v>-7.1999999999999998E-3</v>
+        <v>-1.5100000000000001E-2</v>
       </c>
       <c r="G7" s="15">
-        <v>-1.1599999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="H7" s="15">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="I7" s="15">
-        <v>-1.46E-2</v>
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="I7" s="16">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J7" s="15">
-        <v>-1.46E-2</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="K7" s="15">
-        <v>-1.46E-2</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="L7" s="17">
-        <v>-1.46E-2</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>44061</v>
+        <v>44119</v>
       </c>
       <c r="B8" s="2">
-        <v>44082</v>
+        <v>44130</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E8" s="15">
-        <v>-1.9300000000000001E-2</v>
+        <v>-3.0099999999999998E-2</v>
       </c>
       <c r="F8" s="15">
-        <v>-1.46E-2</v>
+        <v>-2.1499999999999998E-2</v>
       </c>
       <c r="G8" s="15">
-        <v>-9.1000000000000004E-3</v>
+        <v>-1.24E-2</v>
       </c>
       <c r="H8" s="15">
-        <v>-3.7000000000000002E-3</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="I8" s="16">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J8" s="15">
-        <v>-4.5999999999999999E-3</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="K8" s="15">
-        <v>-3.3999999999999998E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="L8" s="17">
-        <v>-2E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>44049</v>
+        <v>44103</v>
       </c>
       <c r="B9" s="2">
-        <v>44061</v>
+        <v>44119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E9" s="16">
-        <v>7.3000000000000001E-3</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="F9" s="16">
-        <v>6.6E-3</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="G9" s="16">
-        <v>8.6999999999999994E-3</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="H9" s="16">
-        <v>1.06E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="I9" s="16">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="J9" s="16">
-        <v>8.3999999999999995E-3</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="K9" s="16">
-        <v>8.0999999999999996E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="L9" s="18">
-        <v>9.1000000000000004E-3</v>
+        <v>1.8499999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>44040</v>
+        <v>44097</v>
       </c>
       <c r="B10" s="2">
-        <v>44049</v>
+        <v>44103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E10" s="16">
-        <v>2.8199999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="F10" s="16">
-        <v>2.3300000000000001E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="G10" s="16">
-        <v>1.52E-2</v>
-      </c>
-      <c r="H10" s="16">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="I10" s="16">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J10" s="16">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="K10" s="16">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="L10" s="18">
-        <v>6.7000000000000002E-3</v>
+        <v>2E-3</v>
+      </c>
+      <c r="H10" s="15">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="I10" s="15">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="K10" s="15">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="L10" s="17">
+        <v>-3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>43998</v>
+        <v>44082</v>
       </c>
       <c r="B11" s="2">
-        <v>44040</v>
+        <v>44097</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>384</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1.61E-2</v>
-      </c>
-      <c r="I11" s="16">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="J11" s="16">
-        <v>1.52E-2</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="L11" s="18">
-        <v>1.46E-2</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="15">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="L11" s="17">
+        <v>-1.46E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>43978</v>
-      </c>
-      <c r="B12" s="11">
-        <v>43998</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="19">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="G12" s="19">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="H12" s="20">
-        <v>-4.4000000000000003E-3</v>
-      </c>
-      <c r="I12" s="20">
-        <v>-9.9000000000000008E-3</v>
-      </c>
-      <c r="J12" s="20">
-        <v>-9.9000000000000008E-3</v>
-      </c>
-      <c r="K12" s="20">
-        <v>-9.9000000000000008E-3</v>
-      </c>
-      <c r="L12" s="21">
-        <v>-9.9000000000000008E-3</v>
+      <c r="A12" s="7">
+        <v>44061</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44082</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J12" s="15">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="K12" s="15">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="L12" s="17">
+        <v>-2E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>43958</v>
+        <v>44049</v>
       </c>
       <c r="B13" s="2">
-        <v>43978</v>
+        <v>44061</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>18</v>
+        <v>397</v>
+      </c>
+      <c r="E13" s="16">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1.06E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="16">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K13" s="16">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="L13" s="18">
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>43922</v>
+        <v>44040</v>
       </c>
       <c r="B14" s="2">
-        <v>43958</v>
+        <v>44049</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>22</v>
+        <v>396</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H14" s="16">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J14" s="16">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L14" s="18">
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>43914</v>
+        <v>43998</v>
       </c>
       <c r="B15" s="2">
-        <v>43922</v>
+        <v>44040</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>35</v>
+        <v>397</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I15" s="16">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1.52E-2</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1.46E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>43902</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="10">
+        <v>43978</v>
+      </c>
+      <c r="B16" s="11">
+        <v>43998</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>40</v>
+      <c r="E16" s="19">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="I16" s="20">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="J16" s="20">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="K16" s="20">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="L16" s="21">
+        <v>-9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>43893</v>
+        <v>43958</v>
       </c>
       <c r="B17" s="2">
-        <v>43902</v>
+        <v>43978</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>46</v>
+        <v>387</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>43846</v>
+        <v>43922</v>
       </c>
       <c r="B18" s="2">
-        <v>43893</v>
+        <v>43958</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>52</v>
+        <v>398</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>43839</v>
+        <v>43914</v>
       </c>
       <c r="B19" s="2">
-        <v>43846</v>
+        <v>43922</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>43815</v>
+        <v>43902</v>
       </c>
       <c r="B20" s="2">
-        <v>43839</v>
+        <v>43914</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>63</v>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>43791</v>
+        <v>43893</v>
       </c>
       <c r="B21" s="2">
-        <v>43815</v>
+        <v>43902</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>43780</v>
+        <v>43846</v>
       </c>
       <c r="B22" s="2">
-        <v>43791</v>
+        <v>43893</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>43754</v>
+        <v>43839</v>
       </c>
       <c r="B23" s="2">
-        <v>43780</v>
+        <v>43846</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>43642</v>
+        <v>43815</v>
       </c>
       <c r="B24" s="2">
-        <v>43754</v>
+        <v>43839</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
@@ -2608,150 +2541,150 @@
         <v>64</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>43620</v>
+        <v>43791</v>
       </c>
       <c r="B25" s="2">
-        <v>43642</v>
+        <v>43815</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
+        <v>397</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>43587</v>
+        <v>43780</v>
       </c>
       <c r="B26" s="2">
-        <v>43620</v>
+        <v>43791</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>98</v>
+        <v>73</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>43578</v>
+        <v>43754</v>
       </c>
       <c r="B27" s="2">
-        <v>43587</v>
+        <v>43780</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>106</v>
+        <v>80</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>43571</v>
+        <v>43642</v>
       </c>
       <c r="B28" s="2">
-        <v>43578</v>
+        <v>43754</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>47</v>
@@ -2760,340 +2693,340 @@
         <v>64</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>43489</v>
+        <v>43620</v>
       </c>
       <c r="B29" s="2">
-        <v>43571</v>
+        <v>43642</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>43483</v>
+        <v>43587</v>
       </c>
       <c r="B30" s="2">
-        <v>43489</v>
+        <v>43620</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>121</v>
+        <v>94</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>43460</v>
+        <v>43578</v>
       </c>
       <c r="B31" s="2">
-        <v>43483</v>
+        <v>43587</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>43446</v>
+        <v>43571</v>
       </c>
       <c r="B32" s="2">
-        <v>43460</v>
+        <v>43578</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>43413</v>
+        <v>43489</v>
       </c>
       <c r="B33" s="2">
-        <v>43446</v>
+        <v>43571</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>136</v>
+        <v>397</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>43409</v>
+        <v>43483</v>
       </c>
       <c r="B34" s="2">
-        <v>43413</v>
+        <v>43489</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>394</v>
+        <v>64</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>141</v>
+        <v>120</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>43384</v>
+        <v>43460</v>
       </c>
       <c r="B35" s="2">
-        <v>43409</v>
+        <v>43483</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>388</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>43378</v>
+        <v>43446</v>
       </c>
       <c r="B36" s="2">
-        <v>43384</v>
+        <v>43460</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>151</v>
+        <v>129</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>43367</v>
+        <v>43413</v>
       </c>
       <c r="B37" s="2">
-        <v>43378</v>
+        <v>43446</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>47</v>
@@ -3102,150 +3035,150 @@
         <v>64</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>43348</v>
+        <v>43409</v>
       </c>
       <c r="B38" s="2">
-        <v>43367</v>
+        <v>43413</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>163</v>
+        <v>397</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>43341</v>
+        <v>43384</v>
       </c>
       <c r="B39" s="2">
-        <v>43348</v>
+        <v>43409</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>133</v>
+        <v>64</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>43332</v>
+        <v>43378</v>
       </c>
       <c r="B40" s="2">
-        <v>43341</v>
+        <v>43384</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>170</v>
+        <v>397</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>43308</v>
+        <v>43367</v>
       </c>
       <c r="B41" s="2">
-        <v>43332</v>
+        <v>43378</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>47</v>
@@ -3253,379 +3186,379 @@
       <c r="D41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>101</v>
+      <c r="E41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>43290</v>
+        <v>43348</v>
       </c>
       <c r="B42" s="2">
-        <v>43308</v>
+        <v>43367</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>43276</v>
+        <v>43341</v>
       </c>
       <c r="B43" s="2">
-        <v>43290</v>
+        <v>43348</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>181</v>
+        <v>27</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>43270</v>
+        <v>43332</v>
       </c>
       <c r="B44" s="2">
-        <v>43276</v>
+        <v>43341</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>187</v>
+        <v>397</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>190</v>
+        <v>171</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>43257</v>
+        <v>43308</v>
       </c>
       <c r="B45" s="2">
-        <v>43270</v>
+        <v>43332</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>193</v>
+        <v>64</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>129</v>
+        <v>174</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>43244</v>
+        <v>43290</v>
       </c>
       <c r="B46" s="2">
-        <v>43257</v>
+        <v>43308</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>133</v>
+        <v>160</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>43224</v>
+        <v>43276</v>
       </c>
       <c r="B47" s="2">
-        <v>43244</v>
+        <v>43290</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>166</v>
+        <v>182</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>43209</v>
+        <v>43270</v>
       </c>
       <c r="B48" s="2">
-        <v>43224</v>
+        <v>43276</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>207</v>
+        <v>395</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>43182</v>
+        <v>43257</v>
       </c>
       <c r="B49" s="2">
-        <v>43209</v>
+        <v>43270</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>209</v>
+        <v>191</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>58</v>
+        <v>194</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>43173</v>
+        <v>43244</v>
       </c>
       <c r="B50" s="2">
-        <v>43182</v>
+        <v>43257</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>211</v>
+        <v>387</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>43166</v>
+        <v>43224</v>
       </c>
       <c r="B51" s="2">
-        <v>43173</v>
+        <v>43244</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>47</v>
@@ -3633,151 +3566,151 @@
       <c r="D51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>216</v>
+      <c r="E51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>176</v>
+        <v>106</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>43157</v>
+        <v>43209</v>
       </c>
       <c r="B52" s="2">
-        <v>43166</v>
+        <v>43224</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>43136</v>
+        <v>43182</v>
       </c>
       <c r="B53" s="2">
-        <v>43157</v>
+        <v>43209</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>389</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>120</v>
+        <v>208</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>43122</v>
+        <v>43173</v>
       </c>
       <c r="B54" s="2">
-        <v>43136</v>
+        <v>43182</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I54" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="K54" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>43109</v>
+        <v>43166</v>
       </c>
       <c r="B55" s="2">
-        <v>43122</v>
+        <v>43173</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>47</v>
@@ -3786,150 +3719,150 @@
         <v>27</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>43088</v>
+        <v>43157</v>
       </c>
       <c r="B56" s="2">
-        <v>43109</v>
+        <v>43166</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>43067</v>
+        <v>43136</v>
       </c>
       <c r="B57" s="2">
-        <v>43088</v>
+        <v>43157</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>188</v>
+        <v>120</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>235</v>
+        <v>176</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>43020</v>
+        <v>43122</v>
       </c>
       <c r="B58" s="2">
-        <v>43067</v>
+        <v>43136</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>232</v>
+        <v>397</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>43006</v>
+        <v>43109</v>
       </c>
       <c r="B59" s="2">
-        <v>43020</v>
+        <v>43122</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>47</v>
@@ -3938,226 +3871,226 @@
         <v>27</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>150</v>
+        <v>225</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>42990</v>
+        <v>43088</v>
       </c>
       <c r="B60" s="2">
-        <v>43006</v>
+        <v>43109</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>208</v>
+        <v>230</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>42957</v>
+        <v>43067</v>
       </c>
       <c r="B61" s="2">
-        <v>42990</v>
+        <v>43088</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>134</v>
+        <v>27</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>42929</v>
+        <v>43020</v>
       </c>
       <c r="B62" s="2">
-        <v>42957</v>
+        <v>43067</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>252</v>
+        <v>397</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>42726</v>
+        <v>43006</v>
       </c>
       <c r="B63" s="2">
-        <v>42929</v>
+        <v>43020</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>258</v>
+        <v>158</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>258</v>
+        <v>158</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>42683</v>
+        <v>42990</v>
       </c>
       <c r="B64" s="2">
-        <v>42726</v>
+        <v>43006</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>58</v>
+        <v>182</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>42626</v>
+        <v>42957</v>
       </c>
       <c r="B65" s="2">
-        <v>42683</v>
+        <v>42990</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>12</v>
@@ -4165,911 +4098,911 @@
       <c r="D65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>266</v>
+      <c r="E65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>42619</v>
+        <v>42929</v>
       </c>
       <c r="B66" s="2">
-        <v>42626</v>
+        <v>42957</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>270</v>
+        <v>252</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>42489</v>
+        <v>42726</v>
       </c>
       <c r="B67" s="2">
-        <v>42619</v>
+        <v>42929</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>42422</v>
+        <v>42683</v>
       </c>
       <c r="B68" s="2">
-        <v>42489</v>
+        <v>42726</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>42384</v>
+        <v>42626</v>
       </c>
       <c r="B69" s="2">
-        <v>42422</v>
+        <v>42683</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>42375</v>
+        <v>42619</v>
       </c>
       <c r="B70" s="2">
-        <v>42384</v>
+        <v>42626</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>73</v>
+        <v>269</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>287</v>
+        <v>141</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>42360</v>
+        <v>42489</v>
       </c>
       <c r="B71" s="2">
-        <v>42375</v>
+        <v>42619</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>213</v>
+        <v>64</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>213</v>
+        <v>275</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>42354</v>
+        <v>42422</v>
       </c>
       <c r="B72" s="2">
-        <v>42360</v>
+        <v>42489</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>192</v>
+        <v>387</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>42303</v>
+        <v>42384</v>
       </c>
       <c r="B73" s="2">
-        <v>42354</v>
+        <v>42422</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>193</v>
+        <v>156</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>42290</v>
+        <v>42375</v>
       </c>
       <c r="B74" s="2">
-        <v>42303</v>
+        <v>42384</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>300</v>
+        <v>397</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>301</v>
+        <v>73</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
-        <v>42240</v>
+        <v>42360</v>
       </c>
       <c r="B75" s="2">
-        <v>42290</v>
+        <v>42375</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>259</v>
+        <v>27</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>123</v>
+        <v>194</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
-        <v>42193</v>
+        <v>42354</v>
       </c>
       <c r="B76" s="2">
-        <v>42240</v>
+        <v>42360</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>307</v>
+        <v>291</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>42137</v>
+        <v>42303</v>
       </c>
       <c r="B77" s="2">
-        <v>42193</v>
+        <v>42354</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>232</v>
+      <c r="E77" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>42081</v>
+        <v>42290</v>
       </c>
       <c r="B78" s="2">
-        <v>42137</v>
+        <v>42303</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>315</v>
+        <v>387</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>42047</v>
+        <v>42240</v>
       </c>
       <c r="B79" s="2">
-        <v>42081</v>
+        <v>42290</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>394</v>
+        <v>64</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>319</v>
+        <v>106</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>322</v>
+        <v>123</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>323</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>41988</v>
+        <v>42193</v>
       </c>
       <c r="B80" s="2">
-        <v>42047</v>
+        <v>42240</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>325</v>
+        <v>388</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>41942</v>
+        <v>42137</v>
       </c>
       <c r="B81" s="2">
-        <v>41988</v>
+        <v>42193</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>27</v>
+        <v>397</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
-        <v>41870</v>
+        <v>42081</v>
       </c>
       <c r="B82" s="2">
-        <v>41942</v>
+        <v>42137</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="E82" s="4" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>96</v>
+        <v>315</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J82" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L82" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>41852</v>
+        <v>42047</v>
       </c>
       <c r="B83" s="2">
-        <v>41870</v>
+        <v>42081</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
-        <v>41704</v>
+        <v>41988</v>
       </c>
       <c r="B84" s="2">
-        <v>41852</v>
+        <v>42047</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>385</v>
+        <v>64</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>41663</v>
+        <v>41942</v>
       </c>
       <c r="B85" s="2">
-        <v>41704</v>
+        <v>41988</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
-        <v>41523</v>
+        <v>41870</v>
       </c>
       <c r="B86" s="2">
-        <v>41663</v>
+        <v>41942</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>348</v>
+        <v>397</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
-        <v>41502</v>
+        <v>41852</v>
       </c>
       <c r="B87" s="2">
-        <v>41523</v>
+        <v>41870</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>130</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>41472</v>
+        <v>41704</v>
       </c>
       <c r="B88" s="2">
-        <v>41502</v>
+        <v>41852</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>187</v>
+        <v>387</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>187</v>
+        <v>342</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
-        <v>41367</v>
+        <v>41663</v>
       </c>
       <c r="B89" s="2">
-        <v>41472</v>
+        <v>41704</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>64</v>
@@ -5078,36 +5011,36 @@
         <v>64</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
-        <v>41276</v>
+        <v>41523</v>
       </c>
       <c r="B90" s="2">
-        <v>41367</v>
+        <v>41663</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>27</v>
@@ -5116,36 +5049,36 @@
         <v>27</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
-        <v>41150</v>
+        <v>41502</v>
       </c>
       <c r="B91" s="2">
-        <v>41276</v>
+        <v>41523</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>64</v>
@@ -5154,36 +5087,36 @@
         <v>64</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>360</v>
+        <v>157</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
-        <v>41109</v>
+        <v>41472</v>
       </c>
       <c r="B92" s="2">
-        <v>41150</v>
+        <v>41502</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>27</v>
@@ -5192,36 +5125,36 @@
         <v>27</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>363</v>
+        <v>187</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>363</v>
+        <v>187</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
-        <v>41088</v>
+        <v>41367</v>
       </c>
       <c r="B93" s="2">
-        <v>41109</v>
+        <v>41472</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>64</v>
@@ -5229,37 +5162,37 @@
       <c r="D93" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>252</v>
+      <c r="E93" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
-        <v>41079</v>
+        <v>41276</v>
       </c>
       <c r="B94" s="2">
-        <v>41088</v>
+        <v>41367</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>27</v>
@@ -5268,36 +5201,36 @@
         <v>27</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
-        <v>40997</v>
+        <v>41150</v>
       </c>
       <c r="B95" s="2">
-        <v>41079</v>
+        <v>41276</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>64</v>
@@ -5305,37 +5238,37 @@
       <c r="D95" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>368</v>
+      <c r="E95" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
-        <v>40919</v>
+        <v>41109</v>
       </c>
       <c r="B96" s="2">
-        <v>40997</v>
+        <v>41150</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>27</v>
@@ -5343,37 +5276,37 @@
       <c r="D96" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>371</v>
+      <c r="E96" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>371</v>
+        <v>203</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>40869</v>
+        <v>41088</v>
       </c>
       <c r="B97" s="2">
-        <v>40919</v>
+        <v>41109</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>64</v>
@@ -5381,37 +5314,37 @@
       <c r="D97" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>125</v>
+      <c r="E97" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
-        <v>40828</v>
+        <v>41079</v>
       </c>
       <c r="B98" s="2">
-        <v>40869</v>
+        <v>41088</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>27</v>
@@ -5419,66 +5352,218 @@
       <c r="D98" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>40997</v>
+      </c>
+      <c r="B99" s="2">
+        <v>41079</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>40919</v>
+      </c>
+      <c r="B100" s="2">
+        <v>40997</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>40869</v>
+      </c>
+      <c r="B101" s="2">
+        <v>40919</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>40828</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40869</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H102" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I102" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="J102" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="L102" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10">
+    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
         <v>40751</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B103" s="11">
         <v>40828</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C103" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D103" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E103" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F103" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="G99" s="13" t="s">
+      <c r="G103" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H99" s="12" t="s">
+      <c r="H103" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="I103" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J103" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="K99" s="12" t="s">
+      <c r="K103" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="L99" s="14" t="s">
+      <c r="L103" s="14" t="s">
         <v>381</v>
       </c>
     </row>

--- a/raw_data/anuncios_ff_inversa.xlsx
+++ b/raw_data/anuncios_ff_inversa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvarad\Documents\ACEE\fyf_github\fyf\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\fyf\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB315118-E350-46A6-8C4D-25E18CC6FD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="400">
   <si>
     <t>Fecha inicio</t>
   </si>
@@ -1194,6 +1195,9 @@
   </si>
   <si>
     <t>15% B / 85% A</t>
+  </si>
+  <si>
+    <t>70% E / 30% A</t>
   </si>
   <si>
     <t>30% E / 70% A</t>
@@ -1226,7 +1230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1711,29 +1715,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1771,15 +1775,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="B2" s="22">
-        <v>44196</v>
+        <v>44203</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>390</v>
@@ -1793,15 +1797,15 @@
       <c r="K2" s="1"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
-        <v>44166</v>
+        <v>44181</v>
       </c>
       <c r="B3" s="22">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>391</v>
@@ -1815,15 +1819,15 @@
       <c r="K3" s="1"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
-        <v>44147</v>
+        <v>44166</v>
       </c>
       <c r="B4" s="22">
-        <v>44166</v>
+        <v>44181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>392</v>
@@ -1837,40 +1841,40 @@
       <c r="K4" s="1"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
-        <v>44141</v>
+        <v>44147</v>
       </c>
       <c r="B5" s="22">
-        <v>44147</v>
+        <v>44166</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
-        <v>44137</v>
+        <v>44141</v>
       </c>
       <c r="B6" s="22">
-        <v>44141</v>
+        <v>44147</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -1881,3689 +1885,3711 @@
       <c r="K6" s="15"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>44137</v>
+      </c>
+      <c r="B7" s="22">
+        <v>44141</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>44130</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="7">
         <v>44137</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" s="15">
-        <v>-1.9900000000000001E-2</v>
-      </c>
-      <c r="F7" s="15">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>-0.01</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-4.1999999999999997E-3</v>
-      </c>
-      <c r="I7" s="16">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="J7" s="15">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="K7" s="15">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="L7" s="17">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>44119</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44130</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>395</v>
       </c>
       <c r="E8" s="15">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="H8" s="15">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="I8" s="16">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J8" s="15">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="K8" s="15">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="L8" s="17">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>44119</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44130</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="15">
         <v>-3.0099999999999998E-2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="15">
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="15">
         <v>-1.24E-2</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="15">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="16">
         <v>1E-3</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J9" s="15">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="15">
         <v>-3.5000000000000001E-3</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L9" s="17">
         <v>-1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>44103</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>44119</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K10" s="16">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>44097</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44103</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="16">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G9" s="16">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="I9" s="16">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="J9" s="16">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="K9" s="16">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L9" s="18">
-        <v>1.8499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="E11" s="16">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="L11" s="17">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>44082</v>
+      </c>
+      <c r="B12" s="2">
         <v>44097</v>
       </c>
-      <c r="B10" s="2">
-        <v>44103</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2E-3</v>
-      </c>
-      <c r="H10" s="15">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="I10" s="15">
-        <v>-6.4000000000000003E-3</v>
-      </c>
-      <c r="J10" s="15">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="K10" s="15">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="L10" s="17">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="C12" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-1.1599999999999999E-2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="J12" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="L12" s="17">
+        <v>-1.46E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>44061</v>
+      </c>
+      <c r="B13" s="2">
         <v>44082</v>
       </c>
-      <c r="B11" s="2">
-        <v>44097</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="15">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="F11" s="15">
-        <v>-7.1999999999999998E-3</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-1.1599999999999999E-2</v>
-      </c>
-      <c r="H11" s="15">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="I11" s="15">
-        <v>-1.46E-2</v>
-      </c>
-      <c r="J11" s="15">
-        <v>-1.46E-2</v>
-      </c>
-      <c r="K11" s="15">
-        <v>-1.46E-2</v>
-      </c>
-      <c r="L11" s="17">
-        <v>-1.46E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>44061</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44082</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="15">
-        <v>-1.9300000000000001E-2</v>
-      </c>
-      <c r="F12" s="15">
-        <v>-1.46E-2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-9.1000000000000004E-3</v>
-      </c>
-      <c r="H12" s="15">
-        <v>-3.7000000000000002E-3</v>
-      </c>
-      <c r="I12" s="16">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J12" s="15">
-        <v>-4.5999999999999999E-3</v>
-      </c>
-      <c r="K12" s="15">
-        <v>-3.3999999999999998E-3</v>
-      </c>
-      <c r="L12" s="17">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>44049</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44061</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
+        <v>-1.9300000000000001E-2</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="I13" s="16">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J13" s="15">
+        <v>-4.5999999999999999E-3</v>
+      </c>
+      <c r="K13" s="15">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="L13" s="17">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>44049</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="16">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F14" s="16">
         <v>6.6E-3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="16">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H14" s="16">
         <v>1.06E-2</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I14" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J14" s="16">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K14" s="16">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>44040</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>44049</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" s="16">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1.52E-2</v>
-      </c>
-      <c r="H14" s="16">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="I14" s="16">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J14" s="16">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="K14" s="16">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="L14" s="18">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>43998</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44040</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>397</v>
       </c>
       <c r="E15" s="16">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J15" s="16">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="K15" s="16">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="L15" s="18">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>43998</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44040</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="16">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="16">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="16">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="16">
         <v>1.61E-2</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="16">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="16">
         <v>1.52E-2</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="16">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>1.46E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
         <v>43978</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B17" s="11">
         <v>43998</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="19">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F17" s="19">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G17" s="19">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H17" s="20">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I17" s="20">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J17" s="20">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K17" s="20">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L17" s="21">
         <v>-9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>43958</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>43978</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>43922</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>43958</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>43914</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>43902</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43914</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>43893</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43902</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>43846</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>43839</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43846</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>43914</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>43815</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43839</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>43791</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43815</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>43780</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43791</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>43754</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43780</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>43642</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43754</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>43620</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43642</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>43587</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43620</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>43578</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43587</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>43571</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43578</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>43489</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43571</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>43483</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43489</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>43460</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>43902</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43914</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>43893</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43902</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>43446</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43460</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>43846</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43893</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>43839</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43846</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>43815</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43839</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>43791</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43815</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>43780</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43791</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43780</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>43642</v>
-      </c>
-      <c r="B28" s="2">
-        <v>43754</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>43620</v>
-      </c>
-      <c r="B29" s="2">
-        <v>43642</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>43587</v>
-      </c>
-      <c r="B30" s="2">
-        <v>43620</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>43578</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43587</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>43571</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43578</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>43489</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43571</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>43483</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43489</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>43460</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43483</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>43446</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43460</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D37" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>43413</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43446</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>43413</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43446</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L38" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
         <v>43409</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="2">
         <v>43413</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L39" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
         <v>43384</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B40" s="2">
         <v>43409</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L40" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
         <v>43378</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B41" s="2">
         <v>43384</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D41" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L41" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
         <v>43367</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2">
         <v>43378</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L42" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
         <v>43348</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="2">
         <v>43367</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L43" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
         <v>43341</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2">
         <v>43348</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L44" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
         <v>43332</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45" s="2">
         <v>43341</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L45" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
         <v>43308</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2">
         <v>43332</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L46" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
         <v>43290</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>43308</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L47" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
         <v>43276</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2">
         <v>43290</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L48" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
         <v>43270</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2">
         <v>43276</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D49" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
         <v>43257</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="2">
         <v>43270</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D50" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L50" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
         <v>43244</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2">
         <v>43257</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L51" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
         <v>43224</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>43244</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L52" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
         <v>43209</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B53" s="2">
         <v>43224</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L53" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
         <v>43182</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="2">
         <v>43209</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L54" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
         <v>43173</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55" s="2">
         <v>43182</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
         <v>43166</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2">
         <v>43173</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>43157</v>
-      </c>
-      <c r="B56" s="2">
-        <v>43166</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <v>43157</v>
+      </c>
+      <c r="B57" s="2">
+        <v>43166</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L57" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7">
         <v>43136</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>43157</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L58" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7">
         <v>43122</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>43136</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D59" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L59" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7">
         <v>43109</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>43122</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L60" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7">
         <v>43088</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>43109</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L61" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
         <v>43067</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B62" s="2">
         <v>43088</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7">
         <v>43020</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="2">
         <v>43067</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D63" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="L63" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
         <v>43006</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="2">
         <v>43020</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
         <v>42990</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>43006</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L65" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
         <v>42957</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>42990</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L65" s="8" t="s">
+      <c r="L66" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
         <v>42929</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>42957</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L67" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
         <v>42726</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>42929</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L68" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7">
         <v>42683</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>42726</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="D69" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L69" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
         <v>42626</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>42683</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="L69" s="9" t="s">
+      <c r="L70" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7">
         <v>42619</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>42626</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G71" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L71" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
         <v>42489</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>42619</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L72" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
         <v>42422</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B73" s="2">
         <v>42489</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L73" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7">
         <v>42384</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="2">
         <v>42422</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L74" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7">
         <v>42375</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>42384</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D75" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L75" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7">
         <v>42360</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B76" s="2">
         <v>42375</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K76" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L76" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7">
         <v>42354</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>42360</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="D77" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G77" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K77" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L77" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7">
         <v>42303</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="2">
         <v>42354</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G78" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L78" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7">
         <v>42290</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>42303</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="L79" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7">
         <v>42240</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>42290</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="L80" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7">
         <v>42193</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>42240</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="L81" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
+    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7">
         <v>42137</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="2">
         <v>42193</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D82" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L82" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
         <v>42081</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="2">
         <v>42137</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H83" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I83" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K83" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L83" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
         <v>42047</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B84" s="2">
         <v>42081</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="L84" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7">
         <v>41988</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B85" s="2">
         <v>42047</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L85" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7">
         <v>41942</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B86" s="2">
         <v>41988</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="L86" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
+    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
         <v>41870</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B87" s="2">
         <v>41942</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="D87" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K87" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L86" s="8" t="s">
+      <c r="L87" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
+    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7">
         <v>41852</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B88" s="2">
         <v>41870</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I88" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L88" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
+    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
         <v>41704</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B89" s="2">
         <v>41852</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I89" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="L88" s="8" t="s">
+      <c r="L89" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7">
         <v>41663</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B90" s="2">
         <v>41704</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="L89" s="8" t="s">
+      <c r="L90" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="7">
         <v>41523</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B91" s="2">
         <v>41663</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L90" s="8" t="s">
+      <c r="L91" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
+    <row r="92" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="7">
         <v>41502</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B92" s="2">
         <v>41523</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L91" s="8" t="s">
+      <c r="L92" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
+    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7">
         <v>41472</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B93" s="2">
         <v>41502</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I93" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L92" s="8" t="s">
+      <c r="L93" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
+    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
         <v>41367</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B94" s="2">
         <v>41472</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I94" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="L93" s="8" t="s">
+      <c r="L94" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
+    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="7">
         <v>41276</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B95" s="2">
         <v>41367</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L94" s="8" t="s">
+      <c r="L95" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7">
         <v>41150</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B96" s="2">
         <v>41276</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="L95" s="8" t="s">
+      <c r="L96" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
+    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="7">
         <v>41109</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B97" s="2">
         <v>41150</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F97" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G97" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J97" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K97" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L97" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7">
         <v>41088</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="2">
         <v>41109</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H98" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="L98" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
+    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="7">
         <v>41079</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B99" s="2">
         <v>41088</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F99" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K98" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L98" s="8" t="s">
+      <c r="L99" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
+    <row r="100" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7">
         <v>40997</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B100" s="2">
         <v>41079</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="L100" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
+    <row r="101" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="7">
         <v>40919</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B101" s="2">
         <v>40997</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="L100" s="8" t="s">
+      <c r="L101" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
+    <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="7">
         <v>40869</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B102" s="2">
         <v>40919</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F102" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="L101" s="8" t="s">
+      <c r="L102" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
+    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="7">
         <v>40828</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B103" s="2">
         <v>40869</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L102" s="9" t="s">
+      <c r="L103" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10">
+    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="10">
         <v>40751</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B104" s="11">
         <v>40828</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C104" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D104" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E104" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F104" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="G104" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H103" s="12" t="s">
+      <c r="H104" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="I104" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J104" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="K103" s="12" t="s">
+      <c r="K104" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="L103" s="14" t="s">
+      <c r="L104" s="14" t="s">
         <v>381</v>
       </c>
     </row>
